--- a/BackTest/2020-01-23 BackTest XRP.xlsx
+++ b/BackTest/2020-01-23 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-249145.3120187199</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-468691.6261187199</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-365864.2281187199</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-434241.5246187199</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-467928.6632187199</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-502759.5414187199</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-439488.4748187199</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-431653.0817187199</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-431653.0817187199</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-431653.0817187199</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-426894.5194187199</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-426894.5194187199</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-430755.7716187199</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-428979.1845187199</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-427289.6234187199</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-428070.8988187199</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-428070.8988187199</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-397916.6485187199</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-453092.1559187199</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-473000.9174187199</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-480123.6916187199</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-731292.4511187199</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-884652.97536072</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-884652.97536072</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1233831.43096072</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-3003551.88410575</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>267</v>
@@ -6562,7 +6562,7 @@
         <v>-2939936.03330575</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>266.7</v>
@@ -6601,7 +6601,7 @@
         <v>-3015899.82300575</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>266.9</v>
@@ -6640,7 +6640,7 @@
         <v>-3150004.84060575</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>266.7</v>
@@ -6679,7 +6679,7 @@
         <v>-3149931.92260575</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>265.8</v>
@@ -6718,7 +6718,7 @@
         <v>-3173339.41870575</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>266.9</v>
@@ -6757,7 +6757,7 @@
         <v>-3167522.44800575</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>266.3</v>
@@ -6796,7 +6796,7 @@
         <v>-3167522.44800575</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>266.9</v>
@@ -6835,7 +6835,7 @@
         <v>-3168580.83020575</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>266.9</v>
@@ -6874,7 +6874,7 @@
         <v>-3185215.97520575</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>266.4</v>
@@ -6913,7 +6913,7 @@
         <v>-3167560.25510575</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>266.3</v>
@@ -6952,9 +6952,11 @@
         <v>-3149663.32310575</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>267</v>
+      </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
@@ -6989,9 +6991,11 @@
         <v>-3080116.38340575</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>268.2</v>
+      </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
@@ -7544,16 +7548,18 @@
         <v>-2738632.435368131</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
       <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
@@ -7583,7 +7589,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7626,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +7663,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +7700,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +7737,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +7774,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +7811,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +7848,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +7885,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +7922,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +7959,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +7996,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8033,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8070,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8107,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8144,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8181,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8218,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8177,7 +8255,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8288,15 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8329,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +8362,15 @@
         <v>-2759609.17450063</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +8399,15 @@
         <v>-2780129.31850063</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8440,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8477,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8408,7 +8514,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8441,7 +8551,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8474,7 +8588,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8507,7 +8625,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8540,7 +8662,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +8699,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8736,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8639,7 +8773,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8672,7 +8810,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +8847,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +8884,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8771,7 +8921,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +8958,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8837,7 +8995,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8870,7 +9032,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8903,7 +9069,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9106,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9143,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9180,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9217,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9254,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9291,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9134,7 +9328,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9167,7 +9365,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9200,7 +9402,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9233,7 +9439,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9476,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9299,7 +9513,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9332,7 +9550,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9587,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9398,7 +9624,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9431,7 +9661,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9464,7 +9698,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +9735,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +9772,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +9809,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9596,7 +9846,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9629,7 +9883,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9662,7 +9920,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9695,7 +9957,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +9994,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10031,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10068,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10105,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10142,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10179,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10216,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10253,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10290,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10327,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10364,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10401,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +10438,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +10475,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10508,15 @@
         <v>-2384097.379556249</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10549,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +10586,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +10623,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +10660,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +10697,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +10734,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +10771,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +10808,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10845,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10882,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +10919,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +10956,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +10993,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11030,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11067,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11104,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11141,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11178,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11215,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11252,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11289,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11326,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11363,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11400,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +11437,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +11474,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +11511,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +11548,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +11585,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11622,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11659,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11696,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11733,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11770,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11807,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11844,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11881,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11918,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11955,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11992,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12029,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12066,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +12103,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +12140,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12177,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12214,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12251,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12288,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +12325,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +12362,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12399,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12436,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12473,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +12506,15 @@
         <v>-2433390.71963707</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12547,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12584,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +12617,15 @@
         <v>-2338450.38644605</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12654,15 @@
         <v>-2344105.43354605</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12691,15 @@
         <v>-2344105.43354605</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12732,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12769,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12806,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12843,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12880,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12917,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12950,15 @@
         <v>-2364798.33534605</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12991,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +13028,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +13065,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +13102,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +13139,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +13176,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +13213,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +13246,15 @@
         <v>-2352104.27190213</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +13283,15 @@
         <v>-2382418.27190213</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +13320,15 @@
         <v>-2330584.688125051</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +13357,15 @@
         <v>-2330584.688125051</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +13394,15 @@
         <v>-2330584.688125051</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13435,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13472,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13509,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13546,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13583,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13620,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13657,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13694,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13731,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13768,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13805,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13842,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13879,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13916,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13953,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13990,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +14027,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +14064,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +14101,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +14138,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +14175,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +14212,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +14249,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +14286,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +14323,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +14360,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +14397,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +14434,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +14471,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14508,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14545,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +14582,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +14619,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14656,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14693,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14730,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14767,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14804,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14841,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14878,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14915,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14952,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14989,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +15026,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +15063,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +15100,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +15137,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +15174,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +15211,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +15248,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +15285,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +15322,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +15359,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +15396,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +15433,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15470,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15507,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +15544,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +15581,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15618,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15655,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15692,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15729,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15766,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15803,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15840,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15877,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15914,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15951,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15988,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +16025,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +16062,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +16099,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +16136,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +16173,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +16210,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +16247,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +16284,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +16321,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +16358,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +16395,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +16432,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +16469,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +16506,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +16543,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +16580,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +16617,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +16654,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +16691,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +16728,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16765,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +16802,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +16839,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +16876,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16913,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16950,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16987,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +17024,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +17061,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +17098,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +17135,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +17172,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +17209,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +17246,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +17283,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +17320,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +17357,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +17394,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +17431,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +17468,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +17505,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +17542,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +17579,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +17616,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +17653,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +17690,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +17727,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +17764,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16687,14 +17797,16 @@
         <v>-1816051.112232362</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="n">
-        <v>1</v>
-      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="inlineStr"/>
     </row>
     <row r="491">
@@ -16753,7 +17865,7 @@
         <v>-1811545.458232362</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17149,7 +18261,7 @@
         <v>-2156111.238930292</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18337,7 +19449,7 @@
         <v>-2096719.476855422</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -21142,7 +22254,7 @@
         <v>-2702105.559464632</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21175,7 +22287,7 @@
         <v>-2702105.559464632</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21208,7 +22320,7 @@
         <v>-2696915.863364632</v>
       </c>
       <c r="H627" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21241,7 +22353,7 @@
         <v>-2696915.863364632</v>
       </c>
       <c r="H628" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23188,7 +24300,7 @@
         <v>-2166608.792530051</v>
       </c>
       <c r="H687" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23221,7 +24333,7 @@
         <v>-2155548.400130052</v>
       </c>
       <c r="H688" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23254,7 +24366,7 @@
         <v>-2171460.426926392</v>
       </c>
       <c r="H689" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23287,7 +24399,7 @@
         <v>-2171460.426926392</v>
       </c>
       <c r="H690" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23320,7 +24432,7 @@
         <v>-2182677.786830052</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23353,7 +24465,7 @@
         <v>-2138534.607730052</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23386,7 +24498,7 @@
         <v>-2071570.021263192</v>
       </c>
       <c r="H693" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23419,7 +24531,7 @@
         <v>-2071570.021263192</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23452,7 +24564,7 @@
         <v>-2071570.021263192</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23485,7 +24597,7 @@
         <v>-2071570.021263192</v>
       </c>
       <c r="H696" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23518,7 +24630,7 @@
         <v>-2071570.021263192</v>
       </c>
       <c r="H697" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23551,7 +24663,7 @@
         <v>-2080689.721463192</v>
       </c>
       <c r="H698" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23584,7 +24696,7 @@
         <v>-2117357.768763192</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23617,7 +24729,7 @@
         <v>-2115703.063863192</v>
       </c>
       <c r="H700" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23650,7 +24762,7 @@
         <v>-2046080.273177922</v>
       </c>
       <c r="H701" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23683,7 +24795,7 @@
         <v>-2070395.102377922</v>
       </c>
       <c r="H702" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23716,7 +24828,7 @@
         <v>-2013439.176477922</v>
       </c>
       <c r="H703" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23749,7 +24861,7 @@
         <v>-2013439.176477922</v>
       </c>
       <c r="H704" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23782,7 +24894,7 @@
         <v>-2013688.640377922</v>
       </c>
       <c r="H705" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23815,7 +24927,7 @@
         <v>-2013688.640377922</v>
       </c>
       <c r="H706" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23848,7 +24960,7 @@
         <v>-1679011.279177923</v>
       </c>
       <c r="H707" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23881,7 +24993,7 @@
         <v>-1679011.279177923</v>
       </c>
       <c r="H708" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23914,7 +25026,7 @@
         <v>-1679011.279177923</v>
       </c>
       <c r="H709" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23947,7 +25059,7 @@
         <v>-1686054.905377923</v>
       </c>
       <c r="H710" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23980,7 +25092,7 @@
         <v>-1686054.905377923</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24013,7 +25125,7 @@
         <v>-1879940.692077923</v>
       </c>
       <c r="H712" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -24706,7 +25818,7 @@
         <v>-1859900.482607493</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24739,7 +25851,7 @@
         <v>-1864722.566907493</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -26290,7 +27402,7 @@
         <v>-2139787.547969642</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26323,7 +27435,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26356,7 +27468,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26389,7 +27501,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26422,7 +27534,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26455,7 +27567,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26488,7 +27600,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26521,7 +27633,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26554,7 +27666,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26587,7 +27699,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26620,7 +27732,7 @@
         <v>-2138039.086669642</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26653,7 +27765,7 @@
         <v>-2169716.236269642</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26686,7 +27798,7 @@
         <v>-2169716.236269642</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26719,7 +27831,7 @@
         <v>-2169716.236269642</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26752,7 +27864,7 @@
         <v>-2220492.359365032</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27016,7 +28128,7 @@
         <v>-2131961.012965031</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27049,7 +28161,7 @@
         <v>-2118861.012965031</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27082,7 +28194,7 @@
         <v>-2086444.598165032</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27115,7 +28227,7 @@
         <v>-2086444.598165032</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27148,7 +28260,7 @@
         <v>-2086444.598165032</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27181,7 +28293,7 @@
         <v>-1873200.845763451</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27214,7 +28326,7 @@
         <v>-1873200.845763451</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27247,7 +28359,7 @@
         <v>-1959270.872331362</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27280,7 +28392,7 @@
         <v>-1959270.872331362</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27313,7 +28425,7 @@
         <v>-1925984.278900851</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27346,7 +28458,7 @@
         <v>-1945774.697400851</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27379,7 +28491,7 @@
         <v>-1945774.697400851</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27412,7 +28524,7 @@
         <v>-1921066.554300851</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27445,7 +28557,7 @@
         <v>-1880257.382873481</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27478,7 +28590,7 @@
         <v>-1880257.382873481</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27511,7 +28623,7 @@
         <v>-1944277.775748251</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27544,7 +28656,7 @@
         <v>-1866572.358248251</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27577,7 +28689,7 @@
         <v>-1866550.356779292</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27610,7 +28722,7 @@
         <v>-1901251.510479291</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27643,7 +28755,7 @@
         <v>-1899251.510479291</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27676,7 +28788,7 @@
         <v>-1899251.510479291</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27709,7 +28821,7 @@
         <v>-1940514.376979291</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27742,7 +28854,7 @@
         <v>-1943936.376979291</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27775,7 +28887,7 @@
         <v>-1894704.802354981</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27808,7 +28920,7 @@
         <v>-1940642.501354981</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27841,7 +28953,7 @@
         <v>-1875778.204054981</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27874,7 +28986,7 @@
         <v>-1765562.137448251</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27907,7 +29019,7 @@
         <v>-1765562.137448251</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27940,7 +29052,7 @@
         <v>-1696031.073848251</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27973,7 +29085,7 @@
         <v>-1749547.139334331</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28006,7 +29118,7 @@
         <v>-1626158.058888182</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28039,7 +29151,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28072,7 +29184,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28105,7 +29217,7 @@
         <v>-1548966.845326731</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28138,7 +29250,7 @@
         <v>-1605083.693626731</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28171,7 +29283,7 @@
         <v>-1725790.573826731</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28204,7 +29316,7 @@
         <v>-1801896.677661262</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28237,7 +29349,7 @@
         <v>-1773210.668503301</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28270,7 +29382,7 @@
         <v>-1814446.752786161</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28303,7 +29415,7 @@
         <v>-1785244.336186161</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28336,7 +29448,7 @@
         <v>-1838597.567786161</v>
       </c>
       <c r="H843" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28369,7 +29481,7 @@
         <v>-1882416.795606081</v>
       </c>
       <c r="H844" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28402,7 +29514,7 @@
         <v>-1703506.306514981</v>
       </c>
       <c r="H845" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28435,7 +29547,7 @@
         <v>-1728883.393214982</v>
       </c>
       <c r="H846" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28468,7 +29580,7 @@
         <v>-1895934.412465122</v>
       </c>
       <c r="H847" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28501,7 +29613,7 @@
         <v>-1999040.842765122</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28534,7 +29646,7 @@
         <v>-1945189.616865122</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -28567,7 +29679,7 @@
         <v>-1962442.833765122</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28600,7 +29712,7 @@
         <v>-1760053.575765122</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28633,7 +29745,7 @@
         <v>-1778653.350365122</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28666,7 +29778,7 @@
         <v>-1778653.350365122</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -28699,7 +29811,7 @@
         <v>-1777749.117165122</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28732,7 +29844,7 @@
         <v>-1777749.117165122</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28765,7 +29877,7 @@
         <v>-1801948.366065122</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28798,7 +29910,7 @@
         <v>-1801948.366065122</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -28831,7 +29943,7 @@
         <v>-1717911.299865122</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28864,7 +29976,7 @@
         <v>-1724048.647365122</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28897,7 +30009,7 @@
         <v>-1773951.728965122</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28930,7 +30042,7 @@
         <v>-1773951.728965122</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28963,7 +30075,7 @@
         <v>-1763130.557965121</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28996,7 +30108,7 @@
         <v>-1763130.557965121</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -29029,7 +30141,7 @@
         <v>-1799525.073765121</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29062,7 +30174,7 @@
         <v>-1799525.073765121</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29095,7 +30207,7 @@
         <v>-1786125.094165121</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29128,7 +30240,7 @@
         <v>-1844026.987765122</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29161,7 +30273,7 @@
         <v>-1844026.987765122</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29194,7 +30306,7 @@
         <v>-1841671.907465121</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29227,7 +30339,7 @@
         <v>-1851158.480665121</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29260,7 +30372,7 @@
         <v>-1789297.475865121</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29293,7 +30405,7 @@
         <v>-1728342.758986251</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29326,7 +30438,7 @@
         <v>-1728342.758986251</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29359,7 +30471,7 @@
         <v>-1744981.952886251</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -29392,7 +30504,7 @@
         <v>-1775151.547786251</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29425,7 +30537,7 @@
         <v>-1754774.975177731</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29458,7 +30570,7 @@
         <v>-1722504.830777731</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29491,7 +30603,7 @@
         <v>-1766675.217149361</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29524,7 +30636,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29557,7 +30669,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29590,7 +30702,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29623,7 +30735,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29656,7 +30768,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -29689,7 +30801,7 @@
         <v>-1819050.114772021</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29722,7 +30834,7 @@
         <v>-1663751.764848491</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29755,7 +30867,7 @@
         <v>-1663751.764848491</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29788,7 +30900,7 @@
         <v>-1662312.678748491</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29821,7 +30933,7 @@
         <v>-1663012.027948491</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29854,7 +30966,7 @@
         <v>-1673517.101248491</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29887,7 +30999,7 @@
         <v>-1672854.418548491</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29920,7 +31032,7 @@
         <v>-1716977.157148491</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29953,7 +31065,7 @@
         <v>-1716971.659948491</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29986,7 +31098,7 @@
         <v>-1716971.659948491</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30019,7 +31131,7 @@
         <v>-1716971.659948491</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30052,7 +31164,7 @@
         <v>-1734376.635048491</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30085,7 +31197,7 @@
         <v>-1718453.415248491</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30118,7 +31230,7 @@
         <v>-1718453.415248491</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30151,7 +31263,7 @@
         <v>-1718453.415248491</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30184,7 +31296,7 @@
         <v>-1719226.420348491</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30217,7 +31329,7 @@
         <v>-1712378.010848491</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30250,7 +31362,7 @@
         <v>-1703960.484548491</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30283,7 +31395,7 @@
         <v>-1709112.586548491</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30316,7 +31428,7 @@
         <v>-1709112.586548491</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30349,7 +31461,7 @@
         <v>-1706732.783748491</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30382,7 +31494,7 @@
         <v>-1887891.474556711</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30415,7 +31527,7 @@
         <v>-2955320.510856711</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30448,7 +31560,7 @@
         <v>-2718379.284595941</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30481,7 +31593,7 @@
         <v>-2812649.893195941</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30514,7 +31626,7 @@
         <v>-2844990.878895941</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30547,7 +31659,7 @@
         <v>-2803600.307117321</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30580,7 +31692,7 @@
         <v>-2803600.307117321</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30613,7 +31725,7 @@
         <v>-2766473.968417321</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30646,7 +31758,7 @@
         <v>-2855120.617689581</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30679,7 +31791,7 @@
         <v>-2865587.667589581</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30712,7 +31824,7 @@
         <v>-2853913.989189581</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30778,7 +31890,7 @@
         <v>-2883239.49382055</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30844,7 +31956,7 @@
         <v>-2883239.49382055</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -40084,11 +41196,17 @@
         <v>-4125216.73138742</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -40117,11 +41235,17 @@
         <v>-3988591.13968742</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40154,7 +41278,11 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40187,7 +41315,11 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40220,7 +41352,11 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40253,7 +41389,11 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40286,7 +41426,11 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40319,7 +41463,11 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40348,11 +41496,17 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>267.7</v>
+      </c>
       <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40381,11 +41535,17 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>267.7</v>
+      </c>
       <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40414,11 +41574,17 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>267.7</v>
+      </c>
       <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40451,7 +41617,11 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr"/>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40484,7 +41654,11 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr"/>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1211" t="n">
         <v>1</v>
       </c>
@@ -40517,7 +41691,11 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40550,7 +41728,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40583,7 +41765,11 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40616,7 +41802,11 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40649,7 +41839,11 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40682,7 +41876,11 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
-      <c r="K1217" t="inlineStr"/>
+      <c r="K1217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1217" t="n">
         <v>1</v>
       </c>
@@ -40715,7 +41913,11 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
-      <c r="K1218" t="inlineStr"/>
+      <c r="K1218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1218" t="n">
         <v>1</v>
       </c>
@@ -40748,7 +41950,11 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
-      <c r="K1219" t="inlineStr"/>
+      <c r="K1219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1219" t="n">
         <v>1</v>
       </c>
@@ -40781,7 +41987,11 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
-      <c r="K1220" t="inlineStr"/>
+      <c r="K1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1220" t="n">
         <v>1</v>
       </c>
@@ -40814,7 +42024,11 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
-      <c r="K1221" t="inlineStr"/>
+      <c r="K1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1221" t="n">
         <v>1</v>
       </c>
@@ -40847,7 +42061,11 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
-      <c r="K1222" t="inlineStr"/>
+      <c r="K1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1222" t="n">
         <v>1</v>
       </c>
@@ -40880,7 +42098,11 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
-      <c r="K1223" t="inlineStr"/>
+      <c r="K1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1223" t="n">
         <v>1</v>
       </c>
@@ -40913,7 +42135,11 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
-      <c r="K1224" t="inlineStr"/>
+      <c r="K1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1224" t="n">
         <v>1</v>
       </c>
@@ -40946,7 +42172,11 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
-      <c r="K1225" t="inlineStr"/>
+      <c r="K1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1225" t="n">
         <v>1</v>
       </c>
@@ -40979,7 +42209,11 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
-      <c r="K1226" t="inlineStr"/>
+      <c r="K1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1226" t="n">
         <v>1</v>
       </c>
@@ -41012,7 +42246,11 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
-      <c r="K1227" t="inlineStr"/>
+      <c r="K1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1227" t="n">
         <v>1</v>
       </c>
@@ -41045,7 +42283,11 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
-      <c r="K1228" t="inlineStr"/>
+      <c r="K1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1228" t="n">
         <v>1</v>
       </c>
@@ -41078,7 +42320,11 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
-      <c r="K1229" t="inlineStr"/>
+      <c r="K1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1229" t="n">
         <v>1</v>
       </c>
@@ -41111,7 +42357,11 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
-      <c r="K1230" t="inlineStr"/>
+      <c r="K1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1230" t="n">
         <v>1</v>
       </c>
@@ -41144,7 +42394,11 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
-      <c r="K1231" t="inlineStr"/>
+      <c r="K1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1231" t="n">
         <v>1</v>
       </c>
@@ -41177,7 +42431,11 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
-      <c r="K1232" t="inlineStr"/>
+      <c r="K1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1232" t="n">
         <v>1</v>
       </c>
@@ -41210,7 +42468,11 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
-      <c r="K1233" t="inlineStr"/>
+      <c r="K1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1233" t="n">
         <v>1</v>
       </c>
@@ -41243,7 +42505,11 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
-      <c r="K1234" t="inlineStr"/>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1234" t="n">
         <v>1</v>
       </c>
@@ -41276,7 +42542,11 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
-      <c r="K1235" t="inlineStr"/>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1235" t="n">
         <v>1</v>
       </c>
@@ -41309,7 +42579,11 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
-      <c r="K1236" t="inlineStr"/>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1236" t="n">
         <v>1</v>
       </c>
@@ -41342,7 +42616,11 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
-      <c r="K1237" t="inlineStr"/>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1237" t="n">
         <v>1</v>
       </c>
@@ -41375,7 +42653,11 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
-      <c r="K1238" t="inlineStr"/>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1238" t="n">
         <v>1</v>
       </c>
@@ -41408,7 +42690,11 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
-      <c r="K1239" t="inlineStr"/>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1239" t="n">
         <v>1</v>
       </c>
@@ -41441,7 +42727,11 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
-      <c r="K1240" t="inlineStr"/>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1240" t="n">
         <v>1</v>
       </c>
@@ -41474,7 +42764,11 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
-      <c r="K1241" t="inlineStr"/>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1241" t="n">
         <v>1</v>
       </c>
@@ -41507,7 +42801,11 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="inlineStr"/>
-      <c r="K1242" t="inlineStr"/>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1242" t="n">
         <v>1</v>
       </c>
@@ -41540,7 +42838,11 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
-      <c r="K1243" t="inlineStr"/>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1243" t="n">
         <v>1</v>
       </c>
@@ -41573,7 +42875,11 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="inlineStr"/>
-      <c r="K1244" t="inlineStr"/>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1244" t="n">
         <v>1</v>
       </c>
@@ -41606,13 +42912,17 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="inlineStr"/>
-      <c r="K1245" t="inlineStr"/>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1245" t="n">
         <v>1</v>
       </c>
       <c r="M1245" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest XRP.xlsx
+++ b/BackTest/2020-01-23 BackTest XRP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-365864.2281187199</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-434241.5246187199</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-467928.6632187199</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-502759.5414187199</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-439488.4748187199</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-431653.0817187199</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-431653.0817187199</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-431653.0817187199</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-426894.5194187199</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-426894.5194187199</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-430755.7716187199</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-428979.1845187199</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-427289.6234187199</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-428070.8988187199</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-428070.8988187199</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-397916.6485187199</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-453092.1559187199</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-473000.9174187199</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-480123.6916187199</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-731292.4511187199</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-884652.97536072</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-884652.97536072</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-1233831.43096072</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -6523,17 +6523,11 @@
         <v>-3003551.88410575</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6562,17 +6556,11 @@
         <v>-2939936.03330575</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>266.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6601,17 +6589,11 @@
         <v>-3015899.82300575</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>266.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6640,17 +6622,11 @@
         <v>-3150004.84060575</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>266.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6679,17 +6655,11 @@
         <v>-3149931.92260575</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>265.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6718,17 +6688,11 @@
         <v>-3173339.41870575</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>266.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6757,17 +6721,11 @@
         <v>-3167522.44800575</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>266.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6796,17 +6754,11 @@
         <v>-3167522.44800575</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>266.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6835,17 +6787,11 @@
         <v>-3168580.83020575</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>266.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6874,17 +6820,11 @@
         <v>-3185215.97520575</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>266.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6913,17 +6853,11 @@
         <v>-3167560.25510575</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>266.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6952,17 +6886,11 @@
         <v>-3149663.32310575</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6991,17 +6919,11 @@
         <v>-3080116.38340575</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>268.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7071,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7108,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7145,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7182,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7219,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7256,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7293,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7330,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7367,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7404,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7441,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7478,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7515,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7552,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7589,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7626,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7663,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7700,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7737,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7774,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7811,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7848,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7885,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7922,11 +7748,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7959,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7996,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8033,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8070,11 +7880,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8144,11 +7946,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8177,15 +7975,11 @@
         <v>-2720414.03450063</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8214,15 +8008,11 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8251,15 +8041,11 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8288,15 +8074,11 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8325,15 +8107,11 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8362,15 +8140,11 @@
         <v>-2759609.17450063</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8399,15 +8173,11 @@
         <v>-2780129.31850063</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8436,15 +8206,11 @@
         <v>-2784580.78240063</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8477,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8514,11 +8276,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8551,11 +8309,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8588,11 +8342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8625,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8662,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8699,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8736,11 +8474,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8773,11 +8507,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8810,11 +8540,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8847,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8884,11 +8606,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8921,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8958,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8995,11 +8705,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9032,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9143,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9291,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9402,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9439,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9476,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9513,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9550,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9587,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9624,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9661,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9698,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9735,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9772,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9846,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9883,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9957,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9994,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10031,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10068,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10105,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10142,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10179,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10216,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10253,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10290,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10327,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10364,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10401,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10438,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10475,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10512,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10586,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10623,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10660,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10697,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10734,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10771,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10808,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10845,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10882,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10919,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10956,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10993,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11030,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11067,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11104,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11141,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11178,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11215,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11252,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11289,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11326,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11363,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11400,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11437,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11474,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11511,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11548,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11585,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11622,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11659,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11696,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11733,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11807,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11844,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11881,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11918,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11955,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12029,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12066,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12103,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12140,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12177,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12214,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12251,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12288,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12325,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12362,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12399,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12436,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12473,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12510,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12547,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12584,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12621,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12658,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12695,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12732,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12769,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12806,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12843,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12880,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12917,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12954,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +12269,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13028,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13065,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13102,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13139,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13176,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13213,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13250,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13287,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13324,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13361,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13398,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13435,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13472,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13509,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13546,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13583,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13620,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13657,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13694,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13731,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13768,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13805,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13842,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13879,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13916,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13953,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13990,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14027,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14064,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14101,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14138,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14175,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14249,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14286,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14323,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14360,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14397,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14434,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14471,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14508,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14545,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14582,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14619,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14656,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14693,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14730,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14767,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14804,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14841,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14878,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14915,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14952,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14989,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15026,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15063,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15100,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15137,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15174,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15211,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15248,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15285,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15322,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15359,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15396,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15433,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15470,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15507,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15544,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15581,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15618,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15655,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15692,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15766,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15803,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15840,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15877,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15914,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15951,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15988,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16025,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16062,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16099,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16136,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16173,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16210,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16247,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16284,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16321,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16358,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16395,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16432,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16469,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16506,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16543,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16580,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16617,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16691,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16728,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16765,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16802,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16839,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16876,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16913,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16950,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16987,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17024,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17061,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17098,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17135,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17172,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17209,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17246,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17283,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17320,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17357,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17394,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17431,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17468,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17505,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17542,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17579,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17616,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17653,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17690,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17727,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17764,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17797,16 +16555,14 @@
         <v>-1816051.112232362</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="n">
+        <v>1</v>
+      </c>
       <c r="M490" t="inlineStr"/>
     </row>
     <row r="491">
@@ -17865,7 +16621,7 @@
         <v>-1811545.458232362</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18261,7 +17017,7 @@
         <v>-2156111.238930292</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -28557,7 +27313,7 @@
         <v>-1880257.382873481</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28590,7 +27346,7 @@
         <v>-1880257.382873481</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -28623,7 +27379,7 @@
         <v>-1944277.775748251</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -28656,7 +27412,7 @@
         <v>-1866572.358248251</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28689,7 +27445,7 @@
         <v>-1866550.356779292</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -28722,7 +27478,7 @@
         <v>-1901251.510479291</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28755,7 +27511,7 @@
         <v>-1899251.510479291</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28788,7 +27544,7 @@
         <v>-1899251.510479291</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28821,7 +27577,7 @@
         <v>-1940514.376979291</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28854,7 +27610,7 @@
         <v>-1943936.376979291</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28887,7 +27643,7 @@
         <v>-1894704.802354981</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28920,7 +27676,7 @@
         <v>-1940642.501354981</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28953,7 +27709,7 @@
         <v>-1875778.204054981</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28986,7 +27742,7 @@
         <v>-1765562.137448251</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29019,7 +27775,7 @@
         <v>-1765562.137448251</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29052,7 +27808,7 @@
         <v>-1696031.073848251</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29085,7 +27841,7 @@
         <v>-1749547.139334331</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -29118,7 +27874,7 @@
         <v>-1626158.058888182</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -29151,7 +27907,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -29184,7 +27940,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29217,7 +27973,7 @@
         <v>-1548966.845326731</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -29250,7 +28006,7 @@
         <v>-1605083.693626731</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -29283,7 +28039,7 @@
         <v>-1725790.573826731</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -29316,7 +28072,7 @@
         <v>-1801896.677661262</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -29349,7 +28105,7 @@
         <v>-1773210.668503301</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -29382,7 +28138,7 @@
         <v>-1814446.752786161</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -29415,7 +28171,7 @@
         <v>-1785244.336186161</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -29448,7 +28204,7 @@
         <v>-1838597.567786161</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -29481,7 +28237,7 @@
         <v>-1882416.795606081</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -29514,7 +28270,7 @@
         <v>-1703506.306514981</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -29547,7 +28303,7 @@
         <v>-1728883.393214982</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29580,7 +28336,7 @@
         <v>-1895934.412465122</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29613,7 +28369,7 @@
         <v>-1999040.842765122</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -29646,7 +28402,7 @@
         <v>-1945189.616865122</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -29679,7 +28435,7 @@
         <v>-1962442.833765122</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -29712,7 +28468,7 @@
         <v>-1760053.575765122</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29745,7 +28501,7 @@
         <v>-1778653.350365122</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -29778,7 +28534,7 @@
         <v>-1778653.350365122</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -29811,7 +28567,7 @@
         <v>-1777749.117165122</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29844,7 +28600,7 @@
         <v>-1777749.117165122</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29877,7 +28633,7 @@
         <v>-1801948.366065122</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -29910,7 +28666,7 @@
         <v>-1801948.366065122</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29943,7 +28699,7 @@
         <v>-1717911.299865122</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29976,7 +28732,7 @@
         <v>-1724048.647365122</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30009,7 +28765,7 @@
         <v>-1773951.728965122</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30042,7 +28798,7 @@
         <v>-1773951.728965122</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30075,7 +28831,7 @@
         <v>-1763130.557965121</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -30108,7 +28864,7 @@
         <v>-1763130.557965121</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -30141,7 +28897,7 @@
         <v>-1799525.073765121</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -30174,7 +28930,7 @@
         <v>-1799525.073765121</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -30207,7 +28963,7 @@
         <v>-1786125.094165121</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -30240,7 +28996,7 @@
         <v>-1844026.987765122</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -30273,7 +29029,7 @@
         <v>-1844026.987765122</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -30306,7 +29062,7 @@
         <v>-1841671.907465121</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -30339,7 +29095,7 @@
         <v>-1851158.480665121</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -30372,7 +29128,7 @@
         <v>-1789297.475865121</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -30405,7 +29161,7 @@
         <v>-1728342.758986251</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -30438,7 +29194,7 @@
         <v>-1728342.758986251</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30471,7 +29227,7 @@
         <v>-1744981.952886251</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -30504,7 +29260,7 @@
         <v>-1775151.547786251</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30537,7 +29293,7 @@
         <v>-1754774.975177731</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30570,7 +29326,7 @@
         <v>-1722504.830777731</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30603,7 +29359,7 @@
         <v>-1766675.217149361</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30636,7 +29392,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30669,7 +29425,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30702,7 +29458,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30735,7 +29491,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30768,7 +29524,7 @@
         <v>-1783658.722795551</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30801,7 +29557,7 @@
         <v>-1819050.114772021</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30834,7 +29590,7 @@
         <v>-1663751.764848491</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30867,7 +29623,7 @@
         <v>-1663751.764848491</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30900,7 +29656,7 @@
         <v>-1662312.678748491</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30933,7 +29689,7 @@
         <v>-1663012.027948491</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30966,7 +29722,7 @@
         <v>-1673517.101248491</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30999,7 +29755,7 @@
         <v>-1672854.418548491</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31032,7 +29788,7 @@
         <v>-1716977.157148491</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31065,7 +29821,7 @@
         <v>-1716971.659948491</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -31098,7 +29854,7 @@
         <v>-1716971.659948491</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -31131,7 +29887,7 @@
         <v>-1716971.659948491</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -31164,7 +29920,7 @@
         <v>-1734376.635048491</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -31197,7 +29953,7 @@
         <v>-1718453.415248491</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -31230,7 +29986,7 @@
         <v>-1718453.415248491</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -31263,7 +30019,7 @@
         <v>-1718453.415248491</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -31296,7 +30052,7 @@
         <v>-1719226.420348491</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -31329,7 +30085,7 @@
         <v>-1712378.010848491</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -31362,7 +30118,7 @@
         <v>-1703960.484548491</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -31395,7 +30151,7 @@
         <v>-1709112.586548491</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31428,7 +30184,7 @@
         <v>-1709112.586548491</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31461,7 +30217,7 @@
         <v>-1706732.783748491</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -31494,7 +30250,7 @@
         <v>-1887891.474556711</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -31527,7 +30283,7 @@
         <v>-2955320.510856711</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -31560,7 +30316,7 @@
         <v>-2718379.284595941</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -31593,7 +30349,7 @@
         <v>-2812649.893195941</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -31626,7 +30382,7 @@
         <v>-2844990.878895941</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31659,7 +30415,7 @@
         <v>-2803600.307117321</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31692,7 +30448,7 @@
         <v>-2803600.307117321</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31725,7 +30481,7 @@
         <v>-2766473.968417321</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31758,7 +30514,7 @@
         <v>-2855120.617689581</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31791,7 +30547,7 @@
         <v>-2865587.667589581</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31824,7 +30580,7 @@
         <v>-2853913.989189581</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31890,7 +30646,7 @@
         <v>-2883239.49382055</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31956,7 +30712,7 @@
         <v>-2883239.49382055</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -41196,543 +39952,501 @@
         <v>-4125216.73138742</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1199" t="inlineStr"/>
+      <c r="J1199" t="inlineStr"/>
+      <c r="K1199" t="inlineStr"/>
+      <c r="L1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>136625.5917</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>-3988591.13968742</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1200" t="inlineStr"/>
+      <c r="J1200" t="inlineStr"/>
+      <c r="K1200" t="inlineStr"/>
+      <c r="L1200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>269</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>269</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>6872.8336</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>-3981718.30608742</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1201" t="inlineStr"/>
+      <c r="J1201" t="inlineStr"/>
+      <c r="K1201" t="inlineStr"/>
+      <c r="L1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>268.8</v>
+      </c>
+      <c r="E1202" t="n">
         <v>268.5</v>
       </c>
-      <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr">
+      <c r="F1202" t="n">
+        <v>56606.0192</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>-4038324.32528742</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1202" t="inlineStr"/>
+      <c r="J1202" t="inlineStr"/>
+      <c r="K1202" t="inlineStr"/>
+      <c r="L1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="1" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>268.8</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>207763.8325</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>-3830560.49278742</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1203" t="inlineStr"/>
+      <c r="J1203" t="inlineStr"/>
+      <c r="K1203" t="inlineStr"/>
+      <c r="L1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>104409.8333</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>-3934970.32608742</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1204" t="inlineStr"/>
+      <c r="J1204" t="inlineStr"/>
+      <c r="K1204" t="inlineStr"/>
+      <c r="L1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>121111.6349</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>-4056081.96098742</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1205" t="inlineStr"/>
+      <c r="J1205" t="inlineStr"/>
+      <c r="K1205" t="inlineStr"/>
+      <c r="L1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>268</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>268</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>56870.4034</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>-4112952.36438742</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1206" t="inlineStr"/>
+      <c r="J1206" t="inlineStr"/>
+      <c r="K1206" t="inlineStr"/>
+      <c r="L1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>267.6</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>62995.7016</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>-4112952.36438742</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1207" t="inlineStr"/>
+      <c r="J1207" t="inlineStr"/>
+      <c r="K1207" t="inlineStr"/>
+      <c r="L1207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>267.4</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>147651.795</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>-4112952.36438742</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1208" t="inlineStr"/>
+      <c r="J1208" t="inlineStr"/>
+      <c r="K1208" t="inlineStr"/>
+      <c r="L1208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>268</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>134653.1352</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>-4112952.36438742</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1209" t="inlineStr"/>
+      <c r="J1209" t="inlineStr"/>
+      <c r="K1209" t="inlineStr"/>
+      <c r="L1209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>268</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>34446.2868</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>-4078506.07758742</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="K1210" t="inlineStr"/>
+      <c r="L1210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>2116.1579</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>-4076389.91968742</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="K1211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>16022.25867715</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>-4060367.66101027</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>268.1</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L1212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>268.3</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>60208.8964</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>-4060367.66101027</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="K1213" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1199" t="inlineStr"/>
-    </row>
-    <row r="1200">
-      <c r="A1200" s="1" t="n">
-        <v>1198</v>
-      </c>
-      <c r="B1200" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="C1200" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="D1200" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="E1200" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="F1200" t="n">
-        <v>136625.5917</v>
-      </c>
-      <c r="G1200" t="n">
-        <v>-3988591.13968742</v>
-      </c>
-      <c r="H1200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1200" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1200" t="inlineStr"/>
-    </row>
-    <row r="1201">
-      <c r="A1201" s="1" t="n">
-        <v>1199</v>
-      </c>
-      <c r="B1201" t="n">
-        <v>269</v>
-      </c>
-      <c r="C1201" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="D1201" t="n">
-        <v>269</v>
-      </c>
-      <c r="E1201" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="F1201" t="n">
-        <v>6872.8336</v>
-      </c>
-      <c r="G1201" t="n">
-        <v>-3981718.30608742</v>
-      </c>
-      <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1201" t="inlineStr"/>
-    </row>
-    <row r="1202">
-      <c r="A1202" s="1" t="n">
-        <v>1200</v>
-      </c>
-      <c r="B1202" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="C1202" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="D1202" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="E1202" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="F1202" t="n">
-        <v>56606.0192</v>
-      </c>
-      <c r="G1202" t="n">
-        <v>-4038324.32528742</v>
-      </c>
-      <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1202" t="inlineStr"/>
-    </row>
-    <row r="1203">
-      <c r="A1203" s="1" t="n">
-        <v>1201</v>
-      </c>
-      <c r="B1203" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="C1203" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="D1203" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="E1203" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="F1203" t="n">
-        <v>207763.8325</v>
-      </c>
-      <c r="G1203" t="n">
-        <v>-3830560.49278742</v>
-      </c>
-      <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1203" t="inlineStr"/>
-    </row>
-    <row r="1204">
-      <c r="A1204" s="1" t="n">
-        <v>1202</v>
-      </c>
-      <c r="B1204" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="C1204" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="D1204" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="E1204" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="F1204" t="n">
-        <v>104409.8333</v>
-      </c>
-      <c r="G1204" t="n">
-        <v>-3934970.32608742</v>
-      </c>
-      <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1204" t="inlineStr"/>
-    </row>
-    <row r="1205">
-      <c r="A1205" s="1" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B1205" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="C1205" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="D1205" t="n">
-        <v>268.4</v>
-      </c>
-      <c r="E1205" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="F1205" t="n">
-        <v>121111.6349</v>
-      </c>
-      <c r="G1205" t="n">
-        <v>-4056081.96098742</v>
-      </c>
-      <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1205" t="inlineStr"/>
-    </row>
-    <row r="1206">
-      <c r="A1206" s="1" t="n">
-        <v>1204</v>
-      </c>
-      <c r="B1206" t="n">
-        <v>268</v>
-      </c>
-      <c r="C1206" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="D1206" t="n">
-        <v>268</v>
-      </c>
-      <c r="E1206" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="F1206" t="n">
-        <v>56870.4034</v>
-      </c>
-      <c r="G1206" t="n">
-        <v>-4112952.36438742</v>
-      </c>
-      <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1206" t="inlineStr"/>
-    </row>
-    <row r="1207">
-      <c r="A1207" s="1" t="n">
-        <v>1205</v>
-      </c>
-      <c r="B1207" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="C1207" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="D1207" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="E1207" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="F1207" t="n">
-        <v>62995.7016</v>
-      </c>
-      <c r="G1207" t="n">
-        <v>-4112952.36438742</v>
-      </c>
-      <c r="H1207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1207" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1207" t="inlineStr"/>
-    </row>
-    <row r="1208">
-      <c r="A1208" s="1" t="n">
-        <v>1206</v>
-      </c>
-      <c r="B1208" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="C1208" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="D1208" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="E1208" t="n">
-        <v>267.4</v>
-      </c>
-      <c r="F1208" t="n">
-        <v>147651.795</v>
-      </c>
-      <c r="G1208" t="n">
-        <v>-4112952.36438742</v>
-      </c>
-      <c r="H1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1208" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" s="1" t="n">
-        <v>1207</v>
-      </c>
-      <c r="B1209" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="C1209" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="D1209" t="n">
-        <v>268</v>
-      </c>
-      <c r="E1209" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="F1209" t="n">
-        <v>134653.1352</v>
-      </c>
-      <c r="G1209" t="n">
-        <v>-4112952.36438742</v>
-      </c>
-      <c r="H1209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1209" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1209" t="inlineStr"/>
-    </row>
-    <row r="1210">
-      <c r="A1210" s="1" t="n">
-        <v>1208</v>
-      </c>
-      <c r="B1210" t="n">
-        <v>268</v>
-      </c>
-      <c r="C1210" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="D1210" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="E1210" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="F1210" t="n">
-        <v>34446.2868</v>
-      </c>
-      <c r="G1210" t="n">
-        <v>-4078506.07758742</v>
-      </c>
-      <c r="H1210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="inlineStr"/>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1210" t="inlineStr"/>
-    </row>
-    <row r="1211">
-      <c r="A1211" s="1" t="n">
-        <v>1209</v>
-      </c>
-      <c r="B1211" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="C1211" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="D1211" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="E1211" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="F1211" t="n">
-        <v>2116.1579</v>
-      </c>
-      <c r="G1211" t="n">
-        <v>-4076389.91968742</v>
-      </c>
-      <c r="H1211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="inlineStr"/>
-      <c r="K1211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1211" t="inlineStr"/>
-    </row>
-    <row r="1212">
-      <c r="A1212" s="1" t="n">
-        <v>1210</v>
-      </c>
-      <c r="B1212" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="C1212" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="D1212" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="E1212" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="F1212" t="n">
-        <v>16022.25867715</v>
-      </c>
-      <c r="G1212" t="n">
-        <v>-4060367.66101027</v>
-      </c>
-      <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1212" t="inlineStr"/>
-    </row>
-    <row r="1213">
-      <c r="A1213" s="1" t="n">
-        <v>1211</v>
-      </c>
-      <c r="B1213" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="C1213" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="D1213" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="E1213" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="F1213" t="n">
-        <v>60208.8964</v>
-      </c>
-      <c r="G1213" t="n">
-        <v>-4060367.66101027</v>
-      </c>
-      <c r="H1213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -41761,10 +40475,14 @@
         <v>-4026157.57491027</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41798,10 +40516,14 @@
         <v>-4075353.31021027</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41838,7 +40560,9 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="inlineStr"/>
+      <c r="J1216" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41875,7 +40599,9 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="inlineStr"/>
+      <c r="J1217" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41912,7 +40638,9 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="inlineStr"/>
+      <c r="J1218" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41949,7 +40677,9 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="inlineStr"/>
+      <c r="J1219" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41986,7 +40716,9 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="inlineStr"/>
+      <c r="J1220" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42023,7 +40755,9 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="inlineStr"/>
+      <c r="J1221" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42060,7 +40794,9 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="inlineStr"/>
+      <c r="J1222" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42097,7 +40833,9 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="inlineStr"/>
+      <c r="J1223" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42134,7 +40872,9 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="inlineStr"/>
+      <c r="J1224" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42171,7 +40911,9 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="inlineStr"/>
+      <c r="J1225" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42208,7 +40950,9 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="inlineStr"/>
+      <c r="J1226" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42245,7 +40989,9 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="inlineStr"/>
+      <c r="J1227" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42282,7 +41028,9 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="inlineStr"/>
+      <c r="J1228" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42319,7 +41067,9 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="inlineStr"/>
+      <c r="J1229" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42356,7 +41106,9 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="inlineStr"/>
+      <c r="J1230" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42393,7 +41145,9 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="inlineStr"/>
+      <c r="J1231" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42430,7 +41184,9 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="inlineStr"/>
+      <c r="J1232" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42467,7 +41223,9 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="inlineStr"/>
+      <c r="J1233" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42504,7 +41262,9 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="inlineStr"/>
+      <c r="J1234" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42541,7 +41301,9 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="inlineStr"/>
+      <c r="J1235" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42578,7 +41340,9 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="inlineStr"/>
+      <c r="J1236" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42615,7 +41379,9 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="inlineStr"/>
+      <c r="J1237" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42652,7 +41418,9 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="inlineStr"/>
+      <c r="J1238" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42689,7 +41457,9 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="inlineStr"/>
+      <c r="J1239" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42726,7 +41496,9 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="inlineStr"/>
+      <c r="J1240" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42763,7 +41535,9 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="inlineStr"/>
+      <c r="J1241" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42800,7 +41574,9 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="inlineStr"/>
+      <c r="J1242" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42837,7 +41613,9 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="inlineStr"/>
+      <c r="J1243" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42874,7 +41652,9 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="inlineStr"/>
+      <c r="J1244" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42911,7 +41691,9 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="inlineStr"/>
+      <c r="J1245" t="n">
+        <v>267.7</v>
+      </c>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42923,6 +41705,6 @@
       <c r="M1245" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest XRP.xlsx
+++ b/BackTest/2020-01-23 BackTest XRP.xlsx
@@ -7975,7 +7975,7 @@
         <v>-2720414.03450063</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-2720405.89420063</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-2759609.17450063</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-2780129.31850063</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-2784580.78240063</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -27808,7 +27808,7 @@
         <v>-1696031.073848251</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +27841,7 @@
         <v>-1749547.139334331</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +27874,7 @@
         <v>-1626158.058888182</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +27907,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +27940,7 @@
         <v>-1576345.305788181</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +27973,7 @@
         <v>-1548966.845326731</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28006,7 @@
         <v>-1605083.693626731</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28039,7 @@
         <v>-1725790.573826731</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28072,7 @@
         <v>-1801896.677661262</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28105,7 @@
         <v>-1773210.668503301</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28138,7 @@
         <v>-1814446.752786161</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28171,7 @@
         <v>-1785244.336186161</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28204,7 @@
         <v>-1838597.567786161</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28237,7 @@
         <v>-1882416.795606081</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28270,7 @@
         <v>-1703506.306514981</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28303,7 @@
         <v>-1728883.393214982</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28336,7 @@
         <v>-1895934.412465122</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -33220,10 +33220,14 @@
         <v>-3923471.523975271</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J995" t="n">
+        <v>270.1</v>
+      </c>
       <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
@@ -33253,11 +33257,19 @@
         <v>-3947558.394275271</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J996" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -33286,11 +33298,19 @@
         <v>-3973608.615875271</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>270</v>
+      </c>
+      <c r="J997" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -33319,11 +33339,19 @@
         <v>-3938347.058575271</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J998" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -33355,8 +33383,14 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+      <c r="J999" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -33385,11 +33419,19 @@
         <v>-3964288.631163441</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -33418,11 +33460,19 @@
         <v>-4040923.219663441</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -33451,11 +33501,19 @@
         <v>-4040923.219663441</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -33484,11 +33542,19 @@
         <v>-4040915.806765001</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -33517,11 +33583,19 @@
         <v>-4068912.682165001</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -33550,11 +33624,19 @@
         <v>-4068912.682165001</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -33583,11 +33665,19 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -33616,11 +33706,19 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -33649,11 +33747,19 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -33682,11 +33788,19 @@
         <v>-4002682.175465001</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -33715,11 +33829,19 @@
         <v>-3996532.089265001</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -33748,11 +33870,19 @@
         <v>-4037643.112565001</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -33781,11 +33911,19 @@
         <v>-4037643.112565001</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -33814,11 +33952,19 @@
         <v>-4037416.555965001</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -33847,11 +33993,19 @@
         <v>-4038455.144465001</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -33880,11 +34034,19 @@
         <v>-4049926.300165001</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -33913,11 +34075,19 @@
         <v>-4023880.851465001</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -33946,11 +34116,19 @@
         <v>-4031770.005965001</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -33979,11 +34157,19 @@
         <v>-4018275.746765001</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34012,11 +34198,19 @@
         <v>-4027220.108465441</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34045,11 +34239,19 @@
         <v>-4027220.108465441</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34078,11 +34280,19 @@
         <v>-4065995.013965441</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34111,11 +34321,19 @@
         <v>-4060595.766765441</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34144,11 +34362,19 @@
         <v>-4053645.766765441</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34177,11 +34403,19 @@
         <v>-3859202.690365441</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34210,11 +34444,19 @@
         <v>-3867187.060665441</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34243,11 +34485,19 @@
         <v>-3854181.919665441</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -34279,8 +34529,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -34312,8 +34568,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -34345,8 +34607,14 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -34378,8 +34646,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -34411,8 +34685,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -34444,8 +34724,14 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -34477,8 +34763,14 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -34510,8 +34802,14 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -34543,8 +34841,14 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -34576,8 +34880,14 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -34609,8 +34919,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -34642,8 +34958,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -34675,8 +34997,14 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -34708,8 +35036,14 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -34741,8 +35075,14 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -34774,8 +35114,14 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34807,8 +35153,14 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34840,8 +35192,14 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="J1044" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34873,8 +35231,14 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="J1045" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34906,8 +35270,14 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="J1046" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34936,11 +35306,19 @@
         <v>-3838804.37169857</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34972,8 +35350,14 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="J1048" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35005,8 +35389,14 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="J1049" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35038,8 +35428,14 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="J1050" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35068,11 +35464,19 @@
         <v>-4044042.998498571</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35104,8 +35508,14 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="J1052" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35134,11 +35544,19 @@
         <v>-4051677.503798571</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35167,11 +35585,19 @@
         <v>-4033788.883298571</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35200,11 +35626,19 @@
         <v>-4033788.883298571</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35233,11 +35667,19 @@
         <v>-4057437.646498571</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35266,11 +35708,19 @@
         <v>-4057407.646498571</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35299,11 +35749,19 @@
         <v>-4057417.547298571</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35332,11 +35790,19 @@
         <v>-4046702.374498571</v>
       </c>
       <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1059" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1059" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35365,11 +35831,19 @@
         <v>-4059125.525598571</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35398,11 +35872,19 @@
         <v>-4100790.128598571</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1061" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1061" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35431,11 +35913,19 @@
         <v>-4181106.699198571</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35464,11 +35954,19 @@
         <v>-4146348.121942261</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35497,11 +35995,19 @@
         <v>-4146348.121942261</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35530,11 +36036,19 @@
         <v>-4190918.789742261</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35563,11 +36077,19 @@
         <v>-4190918.789742261</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1066" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1066" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35596,11 +36118,19 @@
         <v>-4161844.072242261</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1067" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1067" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35629,11 +36159,19 @@
         <v>-4155683.523484391</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1068" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1068" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35662,11 +36200,19 @@
         <v>-4155683.523484391</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1069" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1069" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35695,11 +36241,19 @@
         <v>-4148780.293284391</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1070" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1070" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35728,11 +36282,19 @@
         <v>-4115245.818484391</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1071" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1071" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35761,11 +36323,19 @@
         <v>-4175411.628584391</v>
       </c>
       <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1072" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1072" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35794,11 +36364,19 @@
         <v>-4175411.628584391</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1073" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1073" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35827,11 +36405,19 @@
         <v>-4143272.883845251</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1074" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1074" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35860,11 +36446,19 @@
         <v>-4143272.883845251</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1075" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1075" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35893,11 +36487,19 @@
         <v>-4189402.840445251</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1076" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1076" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35926,11 +36528,19 @@
         <v>-4189402.840445251</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1077" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1077" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35959,11 +36569,19 @@
         <v>-4175664.962745251</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1078" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1078" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -35992,11 +36610,19 @@
         <v>-4143776.894645251</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1079" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1079" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36025,11 +36651,19 @@
         <v>-4143850.366345251</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1080" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36058,11 +36692,19 @@
         <v>-4131998.954545252</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1081" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36091,11 +36733,19 @@
         <v>-4118739.363945251</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>269.6</v>
+      </c>
+      <c r="J1082" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36124,11 +36774,19 @@
         <v>-4118739.363945251</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1083" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36157,11 +36815,19 @@
         <v>-4149060.846745251</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1084" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1084" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36190,11 +36856,19 @@
         <v>-4158858.662545251</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1085" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1085" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36223,11 +36897,19 @@
         <v>-4158858.662545251</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1086" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1086" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36256,11 +36938,19 @@
         <v>-4158858.662545251</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1087" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1087" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36289,11 +36979,19 @@
         <v>-4167900.710545251</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1088" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36322,11 +37020,19 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="inlineStr"/>
-      <c r="K1089" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36355,11 +37061,19 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="inlineStr"/>
-      <c r="K1090" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1090" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1090" t="n">
         <v>1</v>
       </c>
@@ -36388,11 +37102,19 @@
         <v>-4141553.460645251</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="inlineStr"/>
-      <c r="K1091" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1091" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36421,11 +37143,19 @@
         <v>-4110107.663345251</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="inlineStr"/>
-      <c r="K1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1092" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1092" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1092" t="n">
         <v>1</v>
       </c>
@@ -36454,11 +37184,19 @@
         <v>-4110107.663345251</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="inlineStr"/>
-      <c r="K1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1093" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1093" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1093" t="n">
         <v>1</v>
       </c>
@@ -36487,11 +37225,19 @@
         <v>-4097551.783045251</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="inlineStr"/>
-      <c r="K1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1094" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1094" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1094" t="n">
         <v>1</v>
       </c>
@@ -36520,11 +37266,19 @@
         <v>-4121639.011645251</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="inlineStr"/>
-      <c r="K1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1095" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1095" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1095" t="n">
         <v>1</v>
       </c>
@@ -36553,11 +37307,19 @@
         <v>-4060411.455817431</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="inlineStr"/>
-      <c r="K1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1096" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1096" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1096" t="n">
         <v>1</v>
       </c>
@@ -36586,11 +37348,19 @@
         <v>-4068198.221517431</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="inlineStr"/>
-      <c r="K1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1097" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1097" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1097" t="n">
         <v>1</v>
       </c>
@@ -36619,11 +37389,19 @@
         <v>-4064071.222517431</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="inlineStr"/>
-      <c r="K1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1098" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1098" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1098" t="n">
         <v>1</v>
       </c>
@@ -36652,11 +37430,19 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="inlineStr"/>
-      <c r="K1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1099" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1099" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1099" t="n">
         <v>1</v>
       </c>
@@ -36685,11 +37471,19 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="inlineStr"/>
-      <c r="K1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1100" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1100" t="n">
         <v>1</v>
       </c>
@@ -36718,11 +37512,19 @@
         <v>-4024455.243336171</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="inlineStr"/>
-      <c r="K1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1101" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1101" t="n">
         <v>1</v>
       </c>
@@ -36751,11 +37553,19 @@
         <v>-4050502.019236171</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="inlineStr"/>
-      <c r="K1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1102" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1102" t="n">
         <v>1</v>
       </c>
@@ -36784,11 +37594,19 @@
         <v>-4043862.090036171</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="inlineStr"/>
-      <c r="K1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1103" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1103" t="n">
         <v>1</v>
       </c>
@@ -36817,11 +37635,19 @@
         <v>-4127201.157736171</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="inlineStr"/>
-      <c r="K1104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1104" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1104" t="n">
         <v>1</v>
       </c>
@@ -36850,11 +37676,19 @@
         <v>-4111860.271136171</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="inlineStr"/>
-      <c r="K1105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1105" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="J1105" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1105" t="n">
         <v>1</v>
       </c>
@@ -36883,11 +37717,19 @@
         <v>-4121266.447336171</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="inlineStr"/>
-      <c r="K1106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1106" t="n">
+        <v>269.4</v>
+      </c>
+      <c r="J1106" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1106" t="n">
         <v>1</v>
       </c>
@@ -36916,11 +37758,19 @@
         <v>-4128299.205336171</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="inlineStr"/>
-      <c r="K1107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1107" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1107" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1107" t="n">
         <v>1</v>
       </c>
@@ -36949,11 +37799,19 @@
         <v>-4173319.129018871</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="inlineStr"/>
-      <c r="K1108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1108" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="J1108" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1108" t="n">
         <v>1</v>
       </c>
@@ -36982,11 +37840,19 @@
         <v>-4173319.129018871</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1109" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1109" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -37015,11 +37881,19 @@
         <v>-4145594.154018871</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1110" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1110" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -37048,11 +37922,19 @@
         <v>-4124357.952667611</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1111" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="J1111" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -37081,11 +37963,19 @@
         <v>-4124357.952667611</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1112" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1112" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -37114,11 +38004,19 @@
         <v>-4138168.372667611</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1113" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1113" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -37147,11 +38045,19 @@
         <v>-4137813.798267611</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1114" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="J1114" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -37180,11 +38086,19 @@
         <v>-4137813.798267611</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1115" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1115" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -37213,11 +38127,19 @@
         <v>-4237172.504767611</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1116" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1116" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -37246,11 +38168,19 @@
         <v>-4292202.14756761</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1117" t="n">
+        <v>268.8</v>
+      </c>
+      <c r="J1117" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -37279,11 +38209,19 @@
         <v>-4198930.80106761</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1118" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="J1118" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -37312,11 +38250,19 @@
         <v>-4192233.09216761</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1119" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="J1119" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -37345,11 +38291,19 @@
         <v>-4192233.09216761</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1120" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1120" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -37378,11 +38332,19 @@
         <v>-4193396.60706761</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1121" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1121" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -37411,11 +38373,19 @@
         <v>-4144035.87076761</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1122" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="J1122" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -37444,11 +38414,19 @@
         <v>-4188690.89546761</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1123" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1123" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -37477,11 +38455,19 @@
         <v>-4188690.89546761</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1124" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1124" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -37510,11 +38496,19 @@
         <v>-4160801.92846761</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1125" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1125" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -37543,11 +38537,19 @@
         <v>-4207060.06506761</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1126" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1126" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -37576,11 +38578,19 @@
         <v>-4198604.78756761</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1127" t="n">
+        <v>269.2</v>
+      </c>
+      <c r="J1127" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -37609,11 +38619,19 @@
         <v>-4198604.78756761</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1128" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1128" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -37642,11 +38660,19 @@
         <v>-4214966.63416761</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1129" t="n">
+        <v>269.5</v>
+      </c>
+      <c r="J1129" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -37675,11 +38701,19 @@
         <v>-4150814.87307669</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="inlineStr"/>
-      <c r="K1130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1130" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1130" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -37708,11 +38742,19 @@
         <v>-3989181.84257669</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="inlineStr"/>
-      <c r="K1131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1131" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1131" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -37741,11 +38783,19 @@
         <v>-3989181.84257669</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="inlineStr"/>
-      <c r="K1132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1132" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1132" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -37774,11 +38824,19 @@
         <v>-3993926.46207669</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="inlineStr"/>
-      <c r="K1133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1133" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1133" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -37807,11 +38865,19 @@
         <v>-3993772.46207669</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="inlineStr"/>
-      <c r="K1134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1134" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1134" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -37840,11 +38906,19 @@
         <v>-3944243.47697669</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="inlineStr"/>
-      <c r="K1135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1135" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1135" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -37873,11 +38947,19 @@
         <v>-3966623.33180631</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="inlineStr"/>
-      <c r="K1136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1136" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="J1136" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -37906,11 +38988,19 @@
         <v>-3966623.33180631</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="inlineStr"/>
-      <c r="K1137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1137" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1137" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -37939,11 +39029,19 @@
         <v>-3968930.64480631</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="inlineStr"/>
-      <c r="K1138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1138" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1138" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -37972,11 +39070,19 @@
         <v>-3906841.48240631</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="inlineStr"/>
-      <c r="K1139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1139" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1139" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -38005,11 +39111,19 @@
         <v>-3910412.29780631</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="inlineStr"/>
-      <c r="K1140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1140" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J1140" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -38038,11 +39152,19 @@
         <v>-3907622.585235931</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="inlineStr"/>
-      <c r="K1141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1141" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1141" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -38071,11 +39193,19 @@
         <v>-3907622.585235931</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="inlineStr"/>
-      <c r="K1142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1142" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1142" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -38104,11 +39234,19 @@
         <v>-3907622.585235931</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="inlineStr"/>
-      <c r="K1143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1143" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1143" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -38137,11 +39275,19 @@
         <v>-3931572.941835931</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="inlineStr"/>
-      <c r="K1144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1144" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1144" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1144" t="n">
         <v>1</v>
       </c>
@@ -38170,11 +39316,19 @@
         <v>-3971547.39774356</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="inlineStr"/>
-      <c r="K1145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1145" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J1145" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1145" t="n">
         <v>1</v>
       </c>
@@ -38203,11 +39357,19 @@
         <v>-3860549.40835119</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="inlineStr"/>
-      <c r="K1146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1146" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1146" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1146" t="n">
         <v>1</v>
       </c>
@@ -38236,11 +39398,19 @@
         <v>-3860549.40835119</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="inlineStr"/>
-      <c r="K1147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1147" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1147" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1147" t="n">
         <v>1</v>
       </c>
@@ -38269,11 +39439,19 @@
         <v>-3860549.40835119</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="inlineStr"/>
-      <c r="K1148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1148" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1148" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1148" t="n">
         <v>1</v>
       </c>
@@ -38302,11 +39480,19 @@
         <v>-3845299.483651191</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="inlineStr"/>
-      <c r="K1149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1149" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1149" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1149" t="n">
         <v>1</v>
       </c>
@@ -38335,11 +39521,19 @@
         <v>-3844203.43825119</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="inlineStr"/>
-      <c r="K1150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1150" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="J1150" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1150" t="n">
         <v>1</v>
       </c>
@@ -38368,11 +39562,19 @@
         <v>-3837113.28945119</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="inlineStr"/>
-      <c r="K1151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1151" t="n">
+        <v>270.4</v>
+      </c>
+      <c r="J1151" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1151" t="n">
         <v>1</v>
       </c>
@@ -38401,11 +39603,19 @@
         <v>-3837113.28945119</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="inlineStr"/>
-      <c r="K1152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1152" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="J1152" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1152" t="n">
         <v>1</v>
       </c>
@@ -38434,11 +39644,19 @@
         <v>-3845744.56145119</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="inlineStr"/>
-      <c r="K1153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1153" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="J1153" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1153" t="n">
         <v>1</v>
       </c>
@@ -38467,11 +39685,19 @@
         <v>-3845744.56145119</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="inlineStr"/>
-      <c r="K1154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1154" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="J1154" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1154" t="n">
         <v>1</v>
       </c>
@@ -38500,11 +39726,19 @@
         <v>-3923447.27895119</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="inlineStr"/>
-      <c r="K1155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1155" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="J1155" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1155" t="n">
         <v>1</v>
       </c>
@@ -38533,11 +39767,19 @@
         <v>-3890840.74845119</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="inlineStr"/>
-      <c r="K1156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1156" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="J1156" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1156" t="n">
         <v>1</v>
       </c>
@@ -38566,11 +39808,19 @@
         <v>-3925568.08105119</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="inlineStr"/>
-      <c r="K1157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1157" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="J1157" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1157" t="n">
         <v>1</v>
       </c>
@@ -38599,11 +39849,19 @@
         <v>-3939403.75925119</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="inlineStr"/>
-      <c r="K1158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1158" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="J1158" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1158" t="n">
         <v>1</v>
       </c>
@@ -38632,11 +39890,19 @@
         <v>-3939403.75925119</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="inlineStr"/>
-      <c r="K1159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1159" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="J1159" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1159" t="n">
         <v>1</v>
       </c>
@@ -38665,11 +39931,19 @@
         <v>-3939403.75925119</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="inlineStr"/>
-      <c r="K1160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1160" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="J1160" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1160" t="n">
         <v>1</v>
       </c>
@@ -38698,11 +39972,19 @@
         <v>-3939403.75925119</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="inlineStr"/>
-      <c r="K1161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1161" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="J1161" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1161" t="n">
         <v>1</v>
       </c>
@@ -38731,11 +40013,19 @@
         <v>-3890804.87235119</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="inlineStr"/>
-      <c r="K1162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1162" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="J1162" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1162" t="n">
         <v>1</v>
       </c>
@@ -38764,11 +40054,19 @@
         <v>-3895512.98915119</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="inlineStr"/>
-      <c r="K1163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1163" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="J1163" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1163" t="n">
         <v>1</v>
       </c>
@@ -38797,11 +40095,19 @@
         <v>-3895512.98915119</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="inlineStr"/>
-      <c r="K1164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1164" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="J1164" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1164" t="n">
         <v>1</v>
       </c>
@@ -38830,11 +40136,19 @@
         <v>-3881588.71085119</v>
       </c>
       <c r="H1165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="inlineStr"/>
-      <c r="K1165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1165" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="J1165" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1165" t="n">
         <v>1</v>
       </c>
@@ -38863,11 +40177,19 @@
         <v>-3881588.71085119</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="inlineStr"/>
-      <c r="K1166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1166" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="J1166" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1166" t="n">
         <v>1</v>
       </c>
@@ -38896,11 +40218,19 @@
         <v>-3881588.71085119</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="inlineStr"/>
-      <c r="K1167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1167" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="J1167" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1167" t="n">
         <v>1</v>
       </c>
@@ -38929,11 +40259,19 @@
         <v>-3885981.11545119</v>
       </c>
       <c r="H1168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="inlineStr"/>
-      <c r="K1168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1168" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="J1168" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1168" t="n">
         <v>1</v>
       </c>
@@ -38962,11 +40300,19 @@
         <v>-3915130.94965119</v>
       </c>
       <c r="H1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="inlineStr"/>
-      <c r="K1169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1169" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="J1169" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1169" t="n">
         <v>1</v>
       </c>
@@ -38995,11 +40341,19 @@
         <v>-3915130.94965119</v>
       </c>
       <c r="H1170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="inlineStr"/>
-      <c r="K1170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1170" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="J1170" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1170" t="n">
         <v>1</v>
       </c>
@@ -39028,11 +40382,19 @@
         <v>-3934531.75285119</v>
       </c>
       <c r="H1171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="inlineStr"/>
-      <c r="K1171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1171" t="n">
         <v>1</v>
       </c>
@@ -39061,11 +40423,19 @@
         <v>-3897273.92245119</v>
       </c>
       <c r="H1172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="inlineStr"/>
-      <c r="K1172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1172" t="n">
         <v>1</v>
       </c>
@@ -39094,11 +40464,19 @@
         <v>-3897273.92245119</v>
       </c>
       <c r="H1173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="inlineStr"/>
-      <c r="K1173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1173" t="n">
         <v>1</v>
       </c>
@@ -39127,11 +40505,19 @@
         <v>-3897395.73965119</v>
       </c>
       <c r="H1174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="inlineStr"/>
-      <c r="K1174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1174" t="n">
         <v>1</v>
       </c>
@@ -39160,11 +40546,19 @@
         <v>-3889397.49628481</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="inlineStr"/>
-      <c r="K1175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1175" t="n">
         <v>1</v>
       </c>
@@ -39193,11 +40587,19 @@
         <v>-3829751.83838481</v>
       </c>
       <c r="H1176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="inlineStr"/>
-      <c r="K1176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1176" t="n">
         <v>1</v>
       </c>
@@ -39226,11 +40628,19 @@
         <v>-3935730.95858481</v>
       </c>
       <c r="H1177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="inlineStr"/>
-      <c r="K1177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1177" t="n">
         <v>1</v>
       </c>
@@ -39259,11 +40669,19 @@
         <v>-3927556.61498481</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="inlineStr"/>
-      <c r="K1178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>269.8</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1178" t="n">
         <v>1</v>
       </c>
@@ -39292,11 +40710,19 @@
         <v>-3946278.65488481</v>
       </c>
       <c r="H1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="inlineStr"/>
-      <c r="K1179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1179" t="n">
         <v>1</v>
       </c>
@@ -39325,11 +40751,19 @@
         <v>-3946278.65488481</v>
       </c>
       <c r="H1180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="inlineStr"/>
-      <c r="K1180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1180" t="n">
         <v>1</v>
       </c>
@@ -39358,11 +40792,19 @@
         <v>-3954396.42118481</v>
       </c>
       <c r="H1181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="inlineStr"/>
-      <c r="K1181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>270.2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1181" t="n">
         <v>1</v>
       </c>
@@ -39391,11 +40833,19 @@
         <v>-3954396.42118481</v>
       </c>
       <c r="H1182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="inlineStr"/>
-      <c r="K1182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1182" t="n">
         <v>1</v>
       </c>
@@ -39424,11 +40874,19 @@
         <v>-3954396.42118481</v>
       </c>
       <c r="H1183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="inlineStr"/>
-      <c r="K1183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1183" t="n">
         <v>1</v>
       </c>
@@ -39457,11 +40915,19 @@
         <v>-3954396.42118481</v>
       </c>
       <c r="H1184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="inlineStr"/>
-      <c r="K1184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1184" t="n">
         <v>1</v>
       </c>
@@ -39490,11 +40956,19 @@
         <v>-3942243.82848481</v>
       </c>
       <c r="H1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="inlineStr"/>
-      <c r="K1185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1185" t="n">
         <v>1</v>
       </c>
@@ -39523,11 +40997,19 @@
         <v>-3942638.19408481</v>
       </c>
       <c r="H1186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="inlineStr"/>
-      <c r="K1186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1186" t="n">
         <v>1</v>
       </c>
@@ -39556,11 +41038,19 @@
         <v>-3941903.26438481</v>
       </c>
       <c r="H1187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="inlineStr"/>
-      <c r="K1187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1187" t="n">
         <v>1</v>
       </c>
@@ -39589,11 +41079,19 @@
         <v>-3943628.84488481</v>
       </c>
       <c r="H1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="inlineStr"/>
-      <c r="K1188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>270.3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1188" t="n">
         <v>1</v>
       </c>
@@ -39622,11 +41120,19 @@
         <v>-3953341.21598481</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="inlineStr"/>
-      <c r="K1189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1189" t="n">
         <v>1</v>
       </c>
@@ -39655,11 +41161,19 @@
         <v>-3903877.18508481</v>
       </c>
       <c r="H1190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="inlineStr"/>
-      <c r="K1190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>269.9</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1190" t="n">
         <v>1</v>
       </c>
@@ -39688,11 +41202,19 @@
         <v>-3943857.07988481</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="inlineStr"/>
-      <c r="K1191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1191" t="n">
         <v>1</v>
       </c>
@@ -39721,11 +41243,19 @@
         <v>-3988179.05408481</v>
       </c>
       <c r="H1192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="inlineStr"/>
-      <c r="K1192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1192" t="n">
         <v>1</v>
       </c>
@@ -39754,11 +41284,19 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="inlineStr"/>
-      <c r="K1193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1193" t="n">
         <v>1</v>
       </c>
@@ -39787,11 +41325,19 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="inlineStr"/>
-      <c r="K1194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1194" t="n">
         <v>1</v>
       </c>
@@ -39820,11 +41366,19 @@
         <v>-4034012.20388481</v>
       </c>
       <c r="H1195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="inlineStr"/>
-      <c r="K1195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1195" t="n">
         <v>1</v>
       </c>
@@ -39853,11 +41407,19 @@
         <v>-4077748.20488481</v>
       </c>
       <c r="H1196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="inlineStr"/>
-      <c r="K1196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>269.1</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1196" t="n">
         <v>1</v>
       </c>
@@ -39886,11 +41448,19 @@
         <v>-3930265.40578742</v>
       </c>
       <c r="H1197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="inlineStr"/>
-      <c r="K1197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>268.8</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1197" t="n">
         <v>1</v>
       </c>
@@ -39919,11 +41489,19 @@
         <v>-4125216.73138742</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="inlineStr"/>
-      <c r="K1198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>269</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1198" t="n">
         <v>1</v>
       </c>
@@ -39952,11 +41530,19 @@
         <v>-4125216.73138742</v>
       </c>
       <c r="H1199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="inlineStr"/>
-      <c r="K1199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1199" t="n">
         <v>1</v>
       </c>
@@ -39985,11 +41571,19 @@
         <v>-3988591.13968742</v>
       </c>
       <c r="H1200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="inlineStr"/>
-      <c r="K1200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1200" t="n">
         <v>1</v>
       </c>
@@ -40018,11 +41612,19 @@
         <v>-3981718.30608742</v>
       </c>
       <c r="H1201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="inlineStr"/>
-      <c r="K1201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1201" t="n">
         <v>1</v>
       </c>
@@ -40051,11 +41653,19 @@
         <v>-4038324.32528742</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="inlineStr"/>
-      <c r="K1202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>268.9</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1202" t="n">
         <v>1</v>
       </c>
@@ -40084,11 +41694,19 @@
         <v>-3830560.49278742</v>
       </c>
       <c r="H1203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="inlineStr"/>
-      <c r="K1203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>268.6</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1203" t="n">
         <v>1</v>
       </c>
@@ -40117,11 +41735,19 @@
         <v>-3934970.32608742</v>
       </c>
       <c r="H1204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="inlineStr"/>
-      <c r="K1204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>268.7</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1204" t="n">
         <v>1</v>
       </c>
@@ -40150,11 +41776,19 @@
         <v>-4056081.96098742</v>
       </c>
       <c r="H1205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="inlineStr"/>
-      <c r="K1205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1205" t="n">
         <v>1</v>
       </c>
@@ -40183,11 +41817,19 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="inlineStr"/>
-      <c r="K1206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>267.9</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1206" t="n">
         <v>1</v>
       </c>
@@ -40216,11 +41858,19 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="inlineStr"/>
-      <c r="K1207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1207" t="n">
         <v>1</v>
       </c>
@@ -40249,11 +41899,19 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="inlineStr"/>
-      <c r="K1208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1208" t="n">
         <v>1</v>
       </c>
@@ -40282,11 +41940,19 @@
         <v>-4112952.36438742</v>
       </c>
       <c r="H1209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="inlineStr"/>
-      <c r="K1209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>267.7</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>270.1</v>
+      </c>
+      <c r="K1209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1209" t="n">
         <v>1</v>
       </c>
@@ -40321,9 +41987,13 @@
         <v>267.7</v>
       </c>
       <c r="J1210" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="K1210" t="inlineStr"/>
+        <v>270.1</v>
+      </c>
+      <c r="K1210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1210" t="n">
         <v>1</v>
       </c>
@@ -40358,11 +42028,11 @@
         <v>267.9</v>
       </c>
       <c r="J1211" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1211" t="n">
@@ -40399,11 +42069,11 @@
         <v>268.1</v>
       </c>
       <c r="J1212" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1212" t="n">
@@ -40440,11 +42110,11 @@
         <v>268.5</v>
       </c>
       <c r="J1213" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1213" t="n">
@@ -40475,13 +42145,11 @@
         <v>-4026157.57491027</v>
       </c>
       <c r="H1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1214" t="n">
-        <v>268.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -40522,7 +42190,7 @@
         <v>268.6</v>
       </c>
       <c r="J1215" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -40561,7 +42229,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -40596,11 +42264,13 @@
         <v>-4043928.41041027</v>
       </c>
       <c r="H1217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J1217" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -40635,11 +42305,13 @@
         <v>-4084432.33821027</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J1218" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -40674,11 +42346,13 @@
         <v>-4084429.73201027</v>
       </c>
       <c r="H1219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J1219" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -40713,11 +42387,13 @@
         <v>-4192656.72133053</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J1220" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -40752,11 +42428,13 @@
         <v>-3935213.791730531</v>
       </c>
       <c r="H1221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>268.3</v>
+      </c>
       <c r="J1221" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -40795,7 +42473,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -40830,11 +42508,13 @@
         <v>-3923619.749430531</v>
       </c>
       <c r="H1223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>269</v>
+      </c>
       <c r="J1223" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -40873,7 +42553,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -40908,11 +42588,13 @@
         <v>-4131569.476984061</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J1225" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -40951,7 +42633,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -40986,11 +42668,13 @@
         <v>-4102324.495384061</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J1227" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -41025,11 +42709,13 @@
         <v>-4106666.960084061</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J1228" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -41068,7 +42754,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -41107,7 +42793,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41142,11 +42828,13 @@
         <v>-4445242.81028406</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J1231" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -41181,11 +42869,13 @@
         <v>-4568006.05454728</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J1232" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41220,11 +42910,13 @@
         <v>-4499135.74834728</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>268.6</v>
+      </c>
       <c r="J1233" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41259,11 +42951,13 @@
         <v>-4462413.42844728</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J1234" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -41298,11 +42992,13 @@
         <v>-4470233.89024728</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>269.1</v>
+      </c>
       <c r="J1235" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -41337,11 +43033,13 @@
         <v>-4469597.62164728</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>268.8</v>
+      </c>
       <c r="J1236" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -41376,11 +43074,13 @@
         <v>-4528126.864747279</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>269</v>
+      </c>
       <c r="J1237" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -41415,11 +43115,13 @@
         <v>-4523877.42924728</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J1238" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -41454,11 +43156,13 @@
         <v>-4523887.42924728</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>269</v>
+      </c>
       <c r="J1239" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41493,11 +43197,13 @@
         <v>-4516999.60614728</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>268.5</v>
+      </c>
       <c r="J1240" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -41532,11 +43238,13 @@
         <v>-4585090.00914728</v>
       </c>
       <c r="H1241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>269</v>
+      </c>
       <c r="J1241" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41571,11 +43279,13 @@
         <v>-4585090.00914728</v>
       </c>
       <c r="H1242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J1242" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -41610,11 +43320,13 @@
         <v>-4611020.46790348</v>
       </c>
       <c r="H1243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>268.9</v>
+      </c>
       <c r="J1243" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -41649,11 +43361,13 @@
         <v>-4559579.41258973</v>
       </c>
       <c r="H1244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>268.7</v>
+      </c>
       <c r="J1244" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -41688,11 +43402,13 @@
         <v>-4642184.916589729</v>
       </c>
       <c r="H1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>269</v>
+      </c>
       <c r="J1245" t="n">
-        <v>267.7</v>
+        <v>270.1</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
